--- a/metadata/28_GSE125990.xlsx
+++ b/metadata/28_GSE125990.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krivi/Dropbox/Arbejde/kvs/projects/paired_gsea/01_currated_datasets/05_1_individual_study_excel_KVS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/sohdam_dtu_dk/Documents/Rprojects/pairedGSEA/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770954CC-476B-E847-9EDE-1D31390D7174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{770954CC-476B-E847-9EDE-1D31390D7174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{358B30ED-D3DC-684A-A969-CF7442B20049}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="37480" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>study</t>
   </si>
@@ -88,9 +88,6 @@
     <t>1v3</t>
   </si>
   <si>
-    <t>LMNA deficiency</t>
-  </si>
-  <si>
     <t>2v3</t>
   </si>
   <si>
@@ -98,6 +95,12 @@
   </si>
   <si>
     <t>control comparison</t>
+  </si>
+  <si>
+    <t>LMNA deficiency - control</t>
+  </si>
+  <si>
+    <t>LMNA deficiency - donor</t>
   </si>
 </sst>
 </file>
@@ -160,7 +163,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -482,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="182" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="182" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -540,7 +543,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -560,10 +563,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -583,10 +586,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
         <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
